--- a/biology/Zoologie/Echinometridae/Echinometridae.xlsx
+++ b/biology/Zoologie/Echinometridae/Echinometridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinometridae forment une famille d'oursins réguliers de l'ordre des Camarodonta.
 </t>
@@ -511,15 +523,17 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers, de forme arrondie avec la bouche au centre de la face inférieure (« orale ») et l'anus au sommet opposé.
 La carapace (« test ») est arrondie et souvent elliptique, aplatie dorsalement.
 Les piquants (« radioles ») peuvent avoir des formes très variées suivant les espèces : aiguilles, baguettes, clous, spatules...
-La mâchoire (« Lanterne d'Aristote ») comporte 5 dents en gouttière (de type « camarodonte »)[2], enchâssée dans un péristome pourvu d'encoches buccales très peu prononcées ;
+La mâchoire (« Lanterne d'Aristote ») comporte 5 dents en gouttière (de type « camarodonte »), enchâssée dans un péristome pourvu d'encoches buccales très peu prononcées ;
 Les ambulacres sont trigéminés ou polygéminés ;
-Les pédicellaires globifères ont une structure particulière, portant une unique dent latérale[3].
-Cette famille semble être apparue entre l'Éocène et l'Oligocène[3], elle est aujourd'hui très présente à faible profondeur dans toute la ceinture tropicale.
+Les pédicellaires globifères ont une structure particulière, portant une unique dent latérale.
+Cette famille semble être apparue entre l'Éocène et l'Oligocène, elle est aujourd'hui très présente à faible profondeur dans toute la ceinture tropicale.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Colobocentrotus atratus
